--- a/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
+++ b/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
@@ -759,7 +759,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1052,13 +1052,13 @@
         <v>21000</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>150000</v>
+        <v>110000</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>31</v>
@@ -1747,7 +1747,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>

--- a/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
+++ b/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="206">
   <si>
     <t xml:space="preserve">firma vlastněná z 90-100 %</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t xml:space="preserve">TRADE CENTRE PRAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technologie hlavního města Prahy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pokud člen představenstva nemá exekutivní funkci, tak -50/45/40 tis</t>
   </si>
   <si>
     <t xml:space="preserve">Zdroj pitné vody Káraný</t>
@@ -756,10 +762,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,88 +1118,88 @@
         <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>25000</v>
+        <v>90000</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>22000</v>
+        <v>75000</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>3000</v>
+        <v>20000</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>3000</v>
+        <v>19000</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3000</v>
+        <v>18000</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1000</v>
+        <v>25000</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1000</v>
+        <v>22000</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1000</v>
+        <v>20000</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20000</v>
+        <v>3000</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>19000</v>
+        <v>3000</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>18000</v>
+        <v>3000</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>22000</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>15000</v>
+        <v>19000</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>14000</v>
+        <v>18000</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>25000</v>
@@ -1208,515 +1214,541 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>52</v>
+      <c r="B23" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="O25" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>77020</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="L25" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="M25" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>77020</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>340</v>
-      </c>
-      <c r="L26" s="0" t="s">
+      <c r="M26" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="L27" s="0" t="s">
+      <c r="M27" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="L28" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="M28" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="M29" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="M30" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>2130</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="n">
+        <v>2130</v>
+      </c>
+      <c r="M32" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>12050</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>12050</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>73</v>
-      </c>
-      <c r="L33" s="0" t="s">
+      <c r="M33" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>8960</v>
-      </c>
-      <c r="L34" s="0" t="s">
+      <c r="M34" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>8960</v>
+      </c>
+      <c r="L35" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="L35" s="0" t="s">
+      <c r="M35" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="L36" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="M36" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="J37" s="0" t="s">
+      <c r="M37" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="J38" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>2120</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>115</v>
+      <c r="K38" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2120</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="M39" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="M40" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="L40" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="L41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>130</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="L42" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="M42" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>520</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L42" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M43" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>3240</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="C45" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>3240</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L45" s="0" t="s">
+      <c r="M45" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="L46" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <f aca="false">SUM(D25:D45)</f>
+      <c r="M46" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <f aca="false">SUM(D26:D46)</f>
         <v>107613</v>
       </c>
     </row>
@@ -1753,7 +1785,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1776,21 +1808,21 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>17778</v>
@@ -1811,12 +1843,12 @@
         <v>56666</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>19800</v>
@@ -1837,137 +1869,137 @@
         <v>56666</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4640</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>12290</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">SUM(D7:D9)</f>
@@ -2008,7 +2040,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2031,7 +2063,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>29.58</v>
@@ -2055,12 +2087,12 @@
         <v>35000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>29.58</v>
@@ -2068,7 +2100,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>29.58</v>
@@ -2076,7 +2108,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>29.58</v>
@@ -2084,7 +2116,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>24.1842</v>
@@ -2108,12 +2140,12 @@
         <v>62000</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>24.1842</v>
@@ -2121,7 +2153,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>22.97499</v>
@@ -2129,7 +2161,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.20921</v>
@@ -2137,7 +2169,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>24.1842</v>
@@ -2145,7 +2177,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24.1842</v>
@@ -2153,7 +2185,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>24.1842</v>
@@ -2161,7 +2193,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>24.1842</v>
@@ -2169,7 +2201,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24.1842</v>
@@ -2177,7 +2209,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>24.1842</v>
@@ -2185,7 +2217,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>24.1842</v>
@@ -2193,7 +2225,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>24.1842</v>
@@ -2201,7 +2233,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>24.1842</v>
@@ -2209,7 +2241,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>24.1842</v>
@@ -2217,7 +2249,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>24.1842</v>
@@ -2225,7 +2257,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>24.1842</v>
@@ -2233,7 +2265,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>45.65</v>
@@ -2250,7 +2282,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>11</v>
@@ -2258,7 +2290,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6.73</v>
@@ -2284,17 +2316,17 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
+++ b/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
@@ -120,7 +120,7 @@
     <t xml:space="preserve">https://github.com/pirati-cz/KlubPraha/tree/master/spisy/2015/46-odmeny-tsk/2-odpoved</t>
   </si>
   <si>
-    <t xml:space="preserve">Rozvojové projekty Praha</t>
+    <t xml:space="preserve">Výstaviště Praha</t>
   </si>
   <si>
     <t xml:space="preserve">Celkem 175000-310000 ročně</t>
@@ -764,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
+++ b/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="firmy vlastněné z 90-100 %" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="207">
   <si>
     <t xml:space="preserve">firma vlastněná z 90-100 %</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pražská plynárenská Distribuce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">příjem člena DR odhadnut z majetkového přiznání Březiny</t>
   </si>
   <si>
     <t xml:space="preserve">Pražská plynárenská Servis distribuce</t>
@@ -764,8 +767,8 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1005,25 +1008,37 @@
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>25000</v>
@@ -1046,7 +1061,7 @@
     </row>
     <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>25000</v>
@@ -1067,12 +1082,12 @@
         <v>100000</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>10000</v>
@@ -1084,7 +1099,7 @@
         <v>8000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
@@ -1092,7 +1107,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20000</v>
@@ -1115,7 +1130,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>21000</v>
@@ -1136,12 +1151,12 @@
         <v>60000</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>20000</v>
@@ -1167,7 +1182,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>3000</v>
@@ -1190,7 +1205,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>20000</v>
@@ -1216,7 +1231,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>16000</v>
@@ -1245,46 +1260,46 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1292,37 +1307,37 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>77020</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,16 +1345,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>340</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1347,16 +1362,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>50</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,22 +1379,22 @@
         <v>13</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,30 +1402,30 @@
         <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>130</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,16 +1433,16 @@
         <v>18</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2130</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,37 +1450,37 @@
         <v>20</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>12050</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,16 +1488,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>73</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,262 +1505,262 @@
         <v>25</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>8960</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>140</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>30</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>210</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2120</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>120</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>130</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>520</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L43" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="M43" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="M43" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3240</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>100</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">SUM(D26:D46)</f>
@@ -1773,8 +1788,8 @@
   </sheetPr>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1785,7 +1800,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1808,21 +1823,21 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>17778</v>
@@ -1843,12 +1858,12 @@
         <v>56666</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>19800</v>
@@ -1869,137 +1884,137 @@
         <v>56666</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4640</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="K8" s="0" t="s">
-        <v>172</v>
-      </c>
       <c r="L8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>12290</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">SUM(D7:D9)</f>
@@ -2029,7 +2044,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2040,7 +2055,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2063,7 +2078,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>29.58</v>
@@ -2087,12 +2102,12 @@
         <v>35000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>29.58</v>
@@ -2100,7 +2115,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>29.58</v>
@@ -2108,7 +2123,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>29.58</v>
@@ -2116,7 +2131,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>24.1842</v>
@@ -2140,12 +2155,12 @@
         <v>62000</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>24.1842</v>
@@ -2153,7 +2168,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>22.97499</v>
@@ -2161,7 +2176,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.20921</v>
@@ -2169,7 +2184,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>24.1842</v>
@@ -2177,7 +2192,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24.1842</v>
@@ -2185,7 +2200,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>24.1842</v>
@@ -2193,7 +2208,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>24.1842</v>
@@ -2201,7 +2216,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24.1842</v>
@@ -2209,7 +2224,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>24.1842</v>
@@ -2217,7 +2232,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>24.1842</v>
@@ -2225,7 +2240,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>24.1842</v>
@@ -2233,7 +2248,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>24.1842</v>
@@ -2241,7 +2256,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>24.1842</v>
@@ -2249,7 +2264,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>24.1842</v>
@@ -2257,7 +2272,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>24.1842</v>
@@ -2265,7 +2280,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>45.65</v>
@@ -2282,7 +2297,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>11</v>
@@ -2290,7 +2305,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6.73</v>
@@ -2316,17 +2331,17 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
+++ b/materialy/mestske-firmy/odmeny-a-hospodareni.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="firmy vlastněné z 90-100 %" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
   <si>
     <t xml:space="preserve">firma vlastněná z 90-100 %</t>
   </si>
@@ -126,9 +126,6 @@
     <t xml:space="preserve">Výstaviště Praha</t>
   </si>
   <si>
-    <t xml:space="preserve">Celkem 175000-310000 ročně</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRADE CENTRE PRAHA</t>
   </si>
   <si>
@@ -501,12 +498,6 @@
     <t xml:space="preserve">Tantiémy 2014: 2 mil dohromady (viz http://zastupitelstvo.praha.eu/ina2014/tedusndetail.aspx?id=246501)</t>
   </si>
   <si>
-    <t xml:space="preserve">Pražská teplárenská Holding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tantiémy 2014: představenstvo 1,6 mil a DR 1,1 mil (viz http://zastupitelstvo.praha.eu/ina2014/tedusndetail.aspx?id=244531)</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://or.justice.cz/ias/ui/vypis-sl-detail?dokument=20532479&amp;subjektId=711792&amp;spis=75100</t>
   </si>
   <si>
@@ -547,15 +538,6 @@
   </si>
   <si>
     <t xml:space="preserve">1,18 mld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://or.justice.cz/ias/ui/vypis-sl-detail?dokument=21021699&amp;subjektId=541499&amp;spis=79003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12,29 mld.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7,87 mld.</t>
   </si>
   <si>
     <t xml:space="preserve">firma vlastněná z méně než 50 %</t>
@@ -767,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1098,8 +1080,14 @@
       <c r="D17" s="0" t="n">
         <v>8000</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>34</v>
+      <c r="E17" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>8000</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>14</v>
@@ -1107,7 +1095,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>20000</v>
@@ -1130,7 +1118,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>21000</v>
@@ -1151,12 +1139,12 @@
         <v>60000</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>20000</v>
@@ -1182,7 +1170,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>3000</v>
@@ -1205,7 +1193,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>20000</v>
@@ -1231,7 +1219,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>16000</v>
@@ -1260,46 +1248,46 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,37 +1295,37 @@
         <v>8</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>77020</v>
       </c>
       <c r="F26" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="H26" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="I26" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="J26" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="J26" s="0" t="s">
+      <c r="K26" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="L26" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="M26" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1345,16 +1333,16 @@
         <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>340</v>
       </c>
       <c r="L27" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,16 +1350,16 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>50</v>
       </c>
       <c r="L28" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1379,22 +1367,22 @@
         <v>13</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>150</v>
       </c>
       <c r="E29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="M29" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,30 +1390,30 @@
         <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>130</v>
       </c>
       <c r="E30" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="M30" s="0" t="s">
         <v>80</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,16 +1421,16 @@
         <v>18</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>85</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2130</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,37 +1438,37 @@
         <v>20</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>12050</v>
       </c>
       <c r="F33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="H33" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="I33" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="J33" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="J33" s="0" t="s">
+      <c r="K33" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="L33" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="M33" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,16 +1476,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>73</v>
       </c>
       <c r="L34" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,16 +1493,16 @@
         <v>25</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>8960</v>
       </c>
       <c r="L35" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,16 +1510,16 @@
         <v>27</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>140</v>
       </c>
       <c r="L36" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="M36" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,25 +1527,25 @@
         <v>28</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>30</v>
       </c>
       <c r="G37" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="K37" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K37" s="0" t="s">
+      <c r="L37" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="L37" s="0" t="s">
+      <c r="M37" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="M37" s="0" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1565,16 +1553,16 @@
         <v>29</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>210</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1582,22 +1570,22 @@
         <v>30</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2120</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="L39" s="0" t="s">
+      <c r="M39" s="0" t="s">
         <v>117</v>
-      </c>
-      <c r="M39" s="0" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,19 +1593,19 @@
         <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>120</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>100</v>
       </c>
       <c r="E40" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="M40" s="0" t="s">
         <v>121</v>
-      </c>
-      <c r="M40" s="0" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,142 +1613,142 @@
         <v>33</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>124</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>120</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="J41" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K41" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="J41" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41" s="0" t="s">
+      <c r="L41" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="M41" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="L41" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M41" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>130</v>
       </c>
       <c r="E42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J42" s="0" t="s">
+      <c r="K42" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="K42" s="0" t="s">
+      <c r="L42" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="L42" s="0" t="s">
+      <c r="M42" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M42" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>520</v>
       </c>
       <c r="J43" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="K43" s="0" t="s">
+      <c r="L43" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="L43" s="0" t="s">
-        <v>140</v>
-      </c>
       <c r="M43" s="0" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>3240</v>
       </c>
       <c r="J45" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="K45" s="0" t="s">
+      <c r="L45" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="L45" s="0" t="s">
+      <c r="M45" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="M45" s="0" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>100</v>
       </c>
       <c r="L46" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="M46" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">SUM(D26:D46)</f>
@@ -1786,10 +1774,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1800,7 +1788,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1823,21 +1811,21 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>17778</v>
@@ -1858,173 +1846,129 @@
         <v>56666</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>19800</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>19800</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>19800</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>56666</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>56666</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>56666</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>55</v>
+      <c r="B6" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4640</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4640</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>163</v>
+        <v>6100</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>168</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>12290</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">SUM(D7:D9)</f>
-        <v>23030</v>
+        <f aca="false">SUM(D6:D7)</f>
+        <v>10740</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" display="Tantiémy 2014: 2 mil dohromady (viz http://zastupitelstvo.praha.eu/ina2014/tedusndetail.aspx?id=246501)"/>
-    <hyperlink ref="H4" r:id="rId2" display="Tantiémy 2014: představenstvo 1,6 mil a DR 1,1 mil (viz http://zastupitelstvo.praha.eu/ina2014/tedusndetail.aspx?id=244531)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -2044,7 +1988,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2055,7 +1999,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2078,7 +2022,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>29.58</v>
@@ -2102,12 +2046,12 @@
         <v>35000</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>29.58</v>
@@ -2115,7 +2059,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>29.58</v>
@@ -2123,7 +2067,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>29.58</v>
@@ -2131,7 +2075,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>24.1842</v>
@@ -2155,12 +2099,12 @@
         <v>62000</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>24.1842</v>
@@ -2168,7 +2112,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>22.97499</v>
@@ -2176,7 +2120,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.20921</v>
@@ -2184,7 +2128,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>24.1842</v>
@@ -2192,7 +2136,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>24.1842</v>
@@ -2200,7 +2144,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>24.1842</v>
@@ -2208,7 +2152,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>24.1842</v>
@@ -2216,7 +2160,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>24.1842</v>
@@ -2224,7 +2168,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>24.1842</v>
@@ -2232,7 +2176,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>24.1842</v>
@@ -2240,7 +2184,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>24.1842</v>
@@ -2248,7 +2192,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>24.1842</v>
@@ -2256,7 +2200,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>24.1842</v>
@@ -2264,7 +2208,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>24.1842</v>
@@ -2272,7 +2216,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>24.1842</v>
@@ -2280,24 +2224,33 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B22" s="3" t="n">
         <v>45.65</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>6000</v>
       </c>
+      <c r="G22" s="0" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>22000</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>16000</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B23" s="3" t="n">
         <v>11</v>
@@ -2305,7 +2258,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6.73</v>
@@ -2331,17 +2284,17 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
